--- a/data/trans_orig/Q55-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q55-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{716231CB-3CF2-42A3-A81C-4A6C5D9A6C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06051591-F8DC-4CA8-BC79-DEE779FA93A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4338C7FF-A60B-45D3-AC02-A6B81DC7E4CE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CF518D8E-1CA9-48E5-A510-1CC31DDB0453}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="90">
   <si>
     <t>Población según el número de personas del hogar en 2012 (Tasa respuesta: 1,48%)</t>
   </si>
@@ -219,91 +219,94 @@
     <t>9,45%</t>
   </si>
   <si>
-    <t>31,34%</t>
+    <t>31,06%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>10,87%</t>
+    <t>11,19%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
   </si>
   <si>
     <t>42,09%</t>
   </si>
   <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
   </si>
   <si>
     <t>35,3%</t>
   </si>
   <si>
-    <t>21,8%</t>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
   </si>
   <si>
     <t>48,46%</t>
   </si>
   <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
   </si>
   <si>
     <t>54,84%</t>
   </si>
   <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
   </si>
   <si>
     <t>53,51%</t>
   </si>
   <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
   </si>
   <si>
     <t>6,47%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
   </si>
   <si>
     <t>5,11%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
   </si>
 </sst>
 </file>
@@ -715,7 +718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75CEA28-7F89-4FEB-BB72-5A279BD943F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88694BE6-F2AB-4BA7-96A5-3ACE36DC23E9}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2825,7 +2828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B32929B-308A-4ED7-B96D-08769CD43F28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858E943F-D829-45DC-BBD1-9A2B671992C0}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4462,13 +4465,13 @@
         <v>9036</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H37" s="7">
         <v>30</v>
@@ -4477,13 +4480,13 @@
         <v>38709</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M37" s="7">
         <v>40</v>
@@ -4492,13 +4495,13 @@
         <v>47745</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4531,13 @@
         <v>4564</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -4543,13 +4546,13 @@
         <v>4564</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,13 +4773,13 @@
         <v>9036</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H43" s="7">
         <v>30</v>
@@ -4785,13 +4788,13 @@
         <v>38709</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M43" s="7">
         <v>40</v>
@@ -4800,13 +4803,13 @@
         <v>47745</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,13 +4839,13 @@
         <v>4564</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M44" s="7">
         <v>3</v>
@@ -4851,13 +4854,13 @@
         <v>4564</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q55-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q55-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06051591-F8DC-4CA8-BC79-DEE779FA93A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0188205-CA7F-47AE-9C68-FAF17933C6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CF518D8E-1CA9-48E5-A510-1CC31DDB0453}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{131A72A9-C70D-4196-A360-F604A7401E4A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -99,103 +99,103 @@
     <t>1,45%</t>
   </si>
   <si>
-    <t>7,19%</t>
+    <t>7,72%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>5,21%</t>
+    <t>6,43%</t>
   </si>
   <si>
     <t>6,67%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
   </si>
   <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
   </si>
   <si>
     <t>60,6%</t>
   </si>
   <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
   </si>
   <si>
     <t>41,69%</t>
   </si>
   <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
   </si>
   <si>
     <t>46,45%</t>
   </si>
   <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
   </si>
   <si>
     <t>39,4%</t>
   </si>
   <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
   </si>
   <si>
     <t>42,8%</t>
   </si>
   <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
   </si>
   <si>
     <t>41,95%</t>
   </si>
   <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
   </si>
   <si>
     <t>7,38%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
   </si>
   <si>
     <t>100%</t>
@@ -204,7 +204,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el número de personas del hogar en 2015 (Tasa respuesta: 1,16%)</t>
+    <t>Población según el número de personas del hogar en 2016 (Tasa respuesta: 1,16%)</t>
   </si>
   <si>
     <t>8,64%</t>
@@ -219,31 +219,31 @@
     <t>9,45%</t>
   </si>
   <si>
-    <t>31,06%</t>
+    <t>32,11%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>11,19%</t>
+    <t>11,33%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
   </si>
   <si>
     <t>42,09%</t>
   </si>
   <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
   </si>
   <si>
     <t>35,3%</t>
@@ -252,43 +252,43 @@
     <t>22,7%</t>
   </si>
   <si>
-    <t>48,02%</t>
+    <t>47,6%</t>
   </si>
   <si>
     <t>36,72%</t>
   </si>
   <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
   </si>
   <si>
     <t>48,46%</t>
   </si>
   <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
   </si>
   <si>
     <t>54,84%</t>
   </si>
   <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
   </si>
   <si>
     <t>53,51%</t>
   </si>
   <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
   </si>
   <si>
     <t>6,47%</t>
@@ -297,16 +297,16 @@
     <t>1,43%</t>
   </si>
   <si>
-    <t>19,93%</t>
+    <t>18,43%</t>
   </si>
   <si>
     <t>5,11%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
   </si>
 </sst>
 </file>
@@ -718,7 +718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88694BE6-F2AB-4BA7-96A5-3ACE36DC23E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D76A6E1-889A-4063-B8F1-DFEB62B572D5}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2828,7 +2828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858E943F-D829-45DC-BBD1-9A2B671992C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9349FFAD-F3B9-4C64-8292-3053C5D8DB1C}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
